--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject49.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject49.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.97375977933374092</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -152,7 +152,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="0">
-        <v>0</v>
+        <v>0.69071724843472948</v>
       </c>
       <c r="J1" s="0">
         <v>0</v>
@@ -227,7 +227,7 @@
         <v>0</v>
       </c>
       <c r="AH1" s="0">
-        <v>0</v>
+        <v>0.71548173776850787</v>
       </c>
       <c r="AI1" s="0">
         <v>0</v>
@@ -236,7 +236,7 @@
         <v>0</v>
       </c>
       <c r="AK1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL1" s="0">
         <v>0</v>
@@ -260,7 +260,7 @@
         <v>0</v>
       </c>
       <c r="AS1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT1" s="0">
         <v>0</v>
@@ -323,27 +323,27 @@
         <v>0</v>
       </c>
       <c r="BN1" s="0">
-        <v>0</v>
+        <v>0.53145649828670471</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.50833590484724056</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.72792604337811295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.64194940800934308</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.62993721830786131</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.55119580977433913</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="AX2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="0">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="BB2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="0">
         <v>0</v>
@@ -540,19 +540,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.83268421090543077</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.95319728792626046</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.79445913721170491</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="0">
-        <v>0</v>
+        <v>0.86285485999774036</v>
       </c>
       <c r="BD3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.67197975706414836</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.90178629417709222</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.53457380819673594</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="AY4" s="0">
-        <v>0</v>
+        <v>0.86687123574640979</v>
       </c>
       <c r="AZ4" s="0">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="BF4" s="0">
-        <v>0</v>
+        <v>0.71266388437922212</v>
       </c>
       <c r="BG4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.88410487029006224</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.70119587063581057</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.65737807535266424</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.95860786518984109</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="0">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.88990852871454607</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.52832633497587844</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.59809083114377626</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="0">
-        <v>0</v>
+        <v>0.73009917492689203</v>
       </c>
       <c r="AV6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.91809731400971151</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.72508021818818769</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.77610616639574348</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="0">
-        <v>0</v>
+        <v>0.98030466081763146</v>
       </c>
       <c r="AB7" s="0">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="0">
-        <v>0</v>
+        <v>0.78285297106500695</v>
       </c>
       <c r="BO7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.52006040873517856</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.77822181096003096</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.58389423502618909</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="0">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0</v>
+        <v>0.83379886465449327</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.90880477462374609</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.72755027195075572</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.5236139666818147</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>1</v>
+        <v>0.53084460270147082</v>
       </c>
     </row>
     <row r="10">
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.64506991189634633</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.88871657634996892</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.81953361525082147</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.89808490947631103</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.95204485906003811</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.85652217235921346</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.78215577312007167</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.5689489308441994</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.79314189491078291</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.69348561802159292</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.85061812785767399</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.95811087852671717</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.65475549743760686</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.95592496821695438</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.67345159593253345</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="0">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AM13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="0">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.58923267116404221</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.83287217944891156</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.82327181395971705</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="0">
-        <v>0</v>
+        <v>0.86354617769924846</v>
       </c>
       <c r="AK14" s="0">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AO14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="0">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="0">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AV14" s="0">
-        <v>0</v>
+        <v>0.69739982736733519</v>
       </c>
       <c r="AW14" s="0">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.59282821434765098</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.91289311795259032</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.88673264067572877</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0</v>
+        <v>0.98316629690881729</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3162,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="AY15" s="0">
-        <v>0</v>
+        <v>0.72458490947725784</v>
       </c>
       <c r="AZ15" s="0">
         <v>0</v>
       </c>
       <c r="BA15" s="0">
-        <v>0</v>
+        <v>0.62619869455674304</v>
       </c>
       <c r="BB15" s="0">
-        <v>0</v>
+        <v>0.63716363000389364</v>
       </c>
       <c r="BC15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.93637518422926558</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="0">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="BI16" s="0">
-        <v>0</v>
+        <v>0.92596348873620737</v>
       </c>
       <c r="BJ16" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.68423165150363841</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.69423538885579039</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.78051206746800639</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="BO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.96809207752073179</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.89647184582596218</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="BB18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="0">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.51859600238339576</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.90877477433066167</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.55989210233055364</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.75167115047312194</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="0">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>1</v>
+        <v>0.78016833321346146</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.9462320942800595</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.51686949904207935</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.72705868432666532</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="0">
-        <v>0</v>
+        <v>0.80216903680379037</v>
       </c>
       <c r="AF20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.56556947011195136</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.71685064350781436</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.74030334635640749</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.7321451363306748</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.74336452735531044</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.88055301619060078</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.55218255741511513</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="AN22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.976339437079082</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.61639056417617621</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.99933966147390763</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="BJ23" s="0">
-        <v>0</v>
+        <v>0.92659319305304511</v>
       </c>
       <c r="BK23" s="0">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="0">
         <v>0</v>
@@ -4929,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.60111531362766069</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.85514191604761014</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.71307882498124875</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="AH24" s="0">
-        <v>0</v>
+        <v>0.63318864715424017</v>
       </c>
       <c r="AI24" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.59903114693639459</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.64795764254289212</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="0">
         <v>0</v>
@@ -5347,25 +5347,25 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.58744609599720643</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.91274197520936762</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0</v>
+        <v>0.99962501253546399</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
       </c>
       <c r="AD26" s="0">
-        <v>0</v>
+        <v>0.5960315650879997</v>
       </c>
       <c r="AE26" s="0">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="0">
-        <v>0</v>
+        <v>0.9236958285543071</v>
       </c>
       <c r="AN26" s="0">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="0">
         <v>0</v>
@@ -5502,10 +5502,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="0">
-        <v>0</v>
+        <v>0.9978391554093724</v>
       </c>
       <c r="H27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.70903048140348357</v>
       </c>
       <c r="Z27" s="0">
-        <v>0</v>
+        <v>0.91580466317877085</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.80114231144894021</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="0">
-        <v>0</v>
+        <v>0.70572193170675046</v>
       </c>
       <c r="AK27" s="0">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.59697671581353329</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.71022685495811011</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="0">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="AY28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.57913072658742637</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.99836393358033371</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.5335950820615345</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.74241631071169545</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="0">
         <v>0</v>
@@ -6177,22 +6177,22 @@
         <v>0</v>
       </c>
       <c r="Z30" s="0">
-        <v>0</v>
+        <v>0.52739281602606947</v>
       </c>
       <c r="AA30" s="0">
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.63255788394882051</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.88928207728569564</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="AV30" s="0">
-        <v>0</v>
+        <v>0.51186664394330594</v>
       </c>
       <c r="AW30" s="0">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI30" s="0">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="0">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>0</v>
+        <v>0.94519202898975874</v>
       </c>
       <c r="U31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.63487304178188908</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.83212704894053169</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="0">
-        <v>0</v>
+        <v>0.70395544100031415</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="AW31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="0">
         <v>0</v>
@@ -6470,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="BC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD31" s="0">
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="BG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH31" s="0">
         <v>0</v>
@@ -6604,16 +6604,16 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.78344930929703516</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.70633653916465489</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AM32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.9554269559455062</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.57305789309545996</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.71793801311217997</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.52712145336735716</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0</v>
+        <v>0.77369751122668884</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="0">
-        <v>0</v>
+        <v>0.51054770801800542</v>
       </c>
       <c r="Y34" s="0">
         <v>0</v>
@@ -7019,10 +7019,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.86246892206561032</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.64665868634525703</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.99892886637469824</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="BB34" s="0">
-        <v>0</v>
+        <v>0.92509447414682122</v>
       </c>
       <c r="BC34" s="0">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="BM34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN34" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.58224932830541598</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7237,13 +7237,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.58826762173558478</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.77879076851139717</v>
       </c>
       <c r="AL35" s="0">
-        <v>0</v>
+        <v>0.56894282300976162</v>
       </c>
       <c r="AM35" s="0">
         <v>0</v>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="AR35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="0">
         <v>0</v>
@@ -7318,13 +7318,13 @@
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
       </c>
       <c r="BM35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN35" s="0">
         <v>0</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="0">
-        <v>0</v>
+        <v>0.84469216005173742</v>
       </c>
       <c r="O36" s="0">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="0">
-        <v>0</v>
+        <v>0.73652806138303939</v>
       </c>
       <c r="AB36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.96479626894817239</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.62629954933422982</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.90622218195658344</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.84598173655468212</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.75860651148969604</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.94452025789172223</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.59236470068916947</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="0">
         <v>0</v>
@@ -7852,22 +7852,22 @@
         <v>0</v>
       </c>
       <c r="AI38" s="0">
-        <v>0</v>
+        <v>0.72221118360089476</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.86443479840878379</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.67617332442220879</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="0">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="0">
-        <v>0</v>
+        <v>0.73782969135388887</v>
       </c>
       <c r="AA39" s="0">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.95555089521551206</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.78202701882515413</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.98462175441094368</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.97608817952510518</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="0">
-        <v>0</v>
+        <v>0.63641326174378721</v>
       </c>
       <c r="BA39" s="0">
         <v>0</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="0">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="0">
-        <v>0</v>
+        <v>0.53496307038476476</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.75804042073962496</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.68729479038197083</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.91555136414989835</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8407,10 +8407,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0</v>
+        <v>0.5174989356300328</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.95482683112362321</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.55312607777132339</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.61536734021781592</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="BJ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK41" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.60717316176917191</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.7756712587518424</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.91237206740244048</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.83129559910952888</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="BN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO42" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.53973713959055025</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.90185101563572556</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.51048121396976187</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="0">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.98941329982710702</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.79463637381591301</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.53603994979042002</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.61405840224338626</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="0">
         <v>0</v>
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="0">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.89424305019911199</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.97843315526193475</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.98718353531670444</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.83977125870401792</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>0</v>
+        <v>0.58172737575521227</v>
       </c>
       <c r="BI45" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.52340748076601507</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.50744450340920377</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.52892488602191789</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.6201475275244499</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="0">
-        <v>0</v>
+        <v>0.50868062584365081</v>
       </c>
       <c r="G47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.55274395684112987</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.50036841920976816</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.88069584539978751</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>0</v>
+        <v>0.65274909488534649</v>
       </c>
       <c r="O48" s="0">
         <v>0</v>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="0">
-        <v>0</v>
+        <v>0.57587347706475978</v>
       </c>
       <c r="AE48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.56554111432510423</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.96319703018993441</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.94565484141931433</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10154,25 +10154,25 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.99775919168180194</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.7790433860191206</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0</v>
+        <v>0.58339729039518506</v>
       </c>
       <c r="AY49" s="0">
-        <v>0</v>
+        <v>0.78804955250767228</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
       </c>
       <c r="BA49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="0">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.55553863549217541</v>
       </c>
       <c r="AW50" s="0">
-        <v>0</v>
+        <v>0.72592511587065978</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.82102743618981022</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.98602771212051876</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10437,10 +10437,10 @@
         <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>0</v>
+        <v>0.51433927396639112</v>
       </c>
       <c r="E51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="0">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="0">
-        <v>0</v>
+        <v>0.61140194259655256</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0</v>
+        <v>0.54668077338958043</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.65802552122458025</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.66913538381411031</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="0">
-        <v>0</v>
+        <v>0.62527986526473989</v>
       </c>
       <c r="AN52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.58667461942261068</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.97942751429402275</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="0">
-        <v>0</v>
+        <v>0.76385474510994422</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
@@ -10984,31 +10984,31 @@
         <v>0</v>
       </c>
       <c r="AW53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX53" s="0">
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.71527138578018434</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.67023503296850107</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.56669196102283159</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
       </c>
       <c r="BE53" s="0">
-        <v>0</v>
+        <v>0.52696358226381823</v>
       </c>
       <c r="BF53" s="0">
         <v>0</v>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0">
         <v>0</v>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>0</v>
+        <v>0.5119391020606574</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="0">
-        <v>0</v>
+        <v>0.50019881582842629</v>
       </c>
       <c r="AI54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.55208261824575766</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.76030581760927185</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="0">
-        <v>0</v>
+        <v>0.61367830924838507</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.61184608865999157</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.92373498817340383</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.81434779971520532</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.85600693355588042</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="0">
         <v>0</v>
@@ -11820,25 +11820,25 @@
         <v>0</v>
       </c>
       <c r="BA57" s="0">
-        <v>0</v>
+        <v>0.59003898326872806</v>
       </c>
       <c r="BB57" s="0">
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.95831025333929898</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.73881505273898784</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.56864961994719465</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.68413357508290218</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="0">
-        <v>0</v>
+        <v>0.75866845718531195</v>
       </c>
       <c r="E58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.77887619929623964</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.97545193767523863</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.53187511643754348</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.70477405033494134</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="0">
-        <v>1</v>
+        <v>0.7727831437987972</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="0">
         <v>0</v>
@@ -12244,16 +12244,16 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.63998111876917296</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.81647776248355441</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.70861455945919816</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="AD60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0</v>
+        <v>0.75594615199753146</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.69623406328972282</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.91585428444991812</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.82341757609480792</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="0">
-        <v>0</v>
+        <v>0.77113354149976665</v>
       </c>
       <c r="Q61" s="0">
         <v>0</v>
@@ -12665,16 +12665,16 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.70253331051157208</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.92369497264911726</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.94700703976134093</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12730,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" s="0">
         <v>0</v>
@@ -12760,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="W62" s="0">
-        <v>0</v>
+        <v>0.83110259856574265</v>
       </c>
       <c r="X62" s="0">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="AO62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.83610511954843747</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.55187714606205263</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.87480037217280482</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.68335535730968389</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.68536990093188288</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.8685827875139579</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.60752404380327252</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.90496792216656474</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.80826665401553988</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.60698941130019446</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.9096422378911353</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13411,10 +13411,10 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.75943594956090532</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.66491208101333954</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.68474435651311405</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.93285700877550037</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13518,7 +13518,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0</v>
+        <v>0.56077363481638542</v>
       </c>
       <c r="B66" s="0">
         <v>0</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="0">
-        <v>0</v>
+        <v>0.71992486685420176</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.87736536425496414</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.92467497501009599</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.76926545454947814</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="0">
         <v>0</v>
@@ -13916,21 +13916,21 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.59333180397122243</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.71079703457204679</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.93812034679608414</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>1</v>
+        <v>0.71502508624280359</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.71722221782593309</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject49.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject49.xlsx
@@ -152,7 +152,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="0">
-        <v>0.69071724843472948</v>
+        <v>0.83379886465449327</v>
       </c>
       <c r="J1" s="0">
         <v>0</v>
@@ -227,7 +227,7 @@
         <v>0</v>
       </c>
       <c r="AH1" s="0">
-        <v>0.71548173776850787</v>
+        <v>0.77369751122668884</v>
       </c>
       <c r="AI1" s="0">
         <v>0</v>
@@ -323,27 +323,27 @@
         <v>0</v>
       </c>
       <c r="BN1" s="0">
-        <v>0.53145649828670471</v>
+        <v>0.56077363481638542</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.50833590484724056</v>
+        <v>0.76926545454947814</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.72792604337811295</v>
+        <v>0.93812034679608414</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.64194940800934308</v>
+        <v>0.97375977933374092</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.62993721830786131</v>
+        <v>0.83268421090543077</v>
       </c>
       <c r="D2" s="0">
-        <v>0.55119580977433913</v>
+        <v>0.67197975706414836</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0.95319728792626046</v>
       </c>
       <c r="E3" s="0">
-        <v>0.79445913721170491</v>
+        <v>0.88410487029006224</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0.67197975706414836</v>
       </c>
       <c r="C4" s="0">
-        <v>0.90178629417709222</v>
+        <v>0.95319728792626046</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.53457380819673594</v>
+        <v>0.70119587063581057</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="BF4" s="0">
-        <v>0.71266388437922212</v>
+        <v>0.75866845718531195</v>
       </c>
       <c r="BG4" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.65737807535266424</v>
+        <v>0.88990852871454607</v>
       </c>
       <c r="G5" s="0">
         <v>0.95860786518984109</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.52832633497587844</v>
+        <v>0.72508021818818769</v>
       </c>
       <c r="H6" s="0">
         <v>0.59809083114377626</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.91809731400971151</v>
+        <v>0.95860786518984109</v>
       </c>
       <c r="F7" s="0">
         <v>0.72508021818818769</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.77610616639574348</v>
+        <v>0.90880477462374609</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.98030466081763146</v>
+        <v>0.9978391554093724</v>
       </c>
       <c r="AB7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.52006040873517856</v>
+        <v>0.59809083114377626</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0.77822181096003096</v>
       </c>
       <c r="J8" s="0">
-        <v>0.58389423502618909</v>
+        <v>0.64506991189634633</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1797,13 +1797,13 @@
         <v>0.90880477462374609</v>
       </c>
       <c r="H9" s="0">
-        <v>0.72755027195075572</v>
+        <v>0.77822181096003096</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.5236139666818147</v>
+        <v>0.88871657634996892</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>0.53084460270147082</v>
+        <v>0.71502508624280359</v>
       </c>
     </row>
     <row r="10">
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.81953361525082147</v>
+        <v>0.95204485906003811</v>
       </c>
       <c r="L10" s="0">
         <v>0.89808490947631103</v>
@@ -2224,7 +2224,7 @@
         <v>0.85652217235921346</v>
       </c>
       <c r="M11" s="0">
-        <v>0.78215577312007167</v>
+        <v>0.95811087852671717</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.5689489308441994</v>
+        <v>0.89808490947631103</v>
       </c>
       <c r="K12" s="0">
-        <v>0.79314189491078291</v>
+        <v>0.85652217235921346</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0.95811087852671717</v>
       </c>
       <c r="L13" s="0">
-        <v>0.65475549743760686</v>
+        <v>0.69348561802159292</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.58923267116404221</v>
+        <v>0.85061812785767399</v>
       </c>
       <c r="M14" s="0">
-        <v>0.83287217944891156</v>
+        <v>0.95592496821695438</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.82327181395971705</v>
+        <v>0.91289311795259032</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.59282821434765098</v>
+        <v>0.67345159593253345</v>
       </c>
       <c r="N15" s="0">
         <v>0.91289311795259032</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="0">
-        <v>0.62619869455674304</v>
+        <v>0.76385474510994422</v>
       </c>
       <c r="BB15" s="0">
         <v>0.63716363000389364</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.68423165150363841</v>
+        <v>0.88673264067572877</v>
       </c>
       <c r="P17" s="0">
-        <v>0.69423538885579039</v>
+        <v>0.93637518422926558</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0.96809207752073179</v>
       </c>
       <c r="T18" s="0">
-        <v>0.89647184582596218</v>
+        <v>0.9462320942800595</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.51859600238339576</v>
+        <v>0.78051206746800639</v>
       </c>
       <c r="R19" s="0">
-        <v>0.90877477433066167</v>
+        <v>0.96809207752073179</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0.9462320942800595</v>
       </c>
       <c r="S20" s="0">
-        <v>0.51686949904207935</v>
+        <v>0.55989210233055364</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.72705868432666532</v>
+        <v>0.7321451363306748</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="0">
-        <v>0.80216903680379037</v>
+        <v>0.94519202898975874</v>
       </c>
       <c r="AF20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.56556947011195136</v>
+        <v>0.75167115047312194</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.71685064350781436</v>
+        <v>0.74336452735531044</v>
       </c>
       <c r="W21" s="0">
-        <v>0.74030334635640749</v>
+        <v>0.976339437079082</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0.88055301619060078</v>
       </c>
       <c r="X22" s="0">
-        <v>0.55218255741511513</v>
+        <v>0.60111531362766069</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0.976339437079082</v>
       </c>
       <c r="V23" s="0">
-        <v>0.61639056417617621</v>
+        <v>0.88055301619060078</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0.60111531362766069</v>
       </c>
       <c r="W24" s="0">
-        <v>0.85514191604761014</v>
+        <v>0.99933966147390763</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.59903114693639459</v>
+        <v>0.91274197520936762</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.64795764254289212</v>
+        <v>0.70903048140348357</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.58744609599720643</v>
+        <v>0.71307882498124875</v>
       </c>
       <c r="Y26" s="0">
         <v>0.91274197520936762</v>
@@ -5559,7 +5559,7 @@
         <v>0.70903048140348357</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.91580466317877085</v>
+        <v>0.99962501253546399</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="0">
-        <v>0.70572193170675046</v>
+        <v>0.73652806138303939</v>
       </c>
       <c r="AK27" s="0">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.59697671581353329</v>
+        <v>0.99836393358033371</v>
       </c>
       <c r="AD28" s="0">
         <v>0.71022685495811011</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.57913072658742637</v>
+        <v>0.80114231144894021</v>
       </c>
       <c r="AB29" s="0">
         <v>0.99836393358033371</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.5335950820615345</v>
+        <v>0.88928207728569564</v>
       </c>
       <c r="AE29" s="0">
         <v>0.74241631071169545</v>
@@ -6177,13 +6177,13 @@
         <v>0</v>
       </c>
       <c r="Z30" s="0">
-        <v>0.52739281602606947</v>
+        <v>0.5960315650879997</v>
       </c>
       <c r="AA30" s="0">
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.63255788394882051</v>
+        <v>0.71022685495811011</v>
       </c>
       <c r="AC30" s="0">
         <v>0.88928207728569564</v>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="AV30" s="0">
-        <v>0.51186664394330594</v>
+        <v>0.57587347706475978</v>
       </c>
       <c r="AW30" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.63487304178188908</v>
+        <v>0.74241631071169545</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.83212704894053169</v>
+        <v>0.9554269559455062</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0.78344930929703516</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.70633653916465489</v>
+        <v>0.86246892206561032</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0.9554269559455062</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.57305789309545996</v>
+        <v>0.78344930929703516</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0.71793801311217997</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.52712145336735716</v>
+        <v>0.58224932830541598</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="0">
-        <v>0.51054770801800542</v>
+        <v>0.63318864715424017</v>
       </c>
       <c r="Y34" s="0">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0.86246892206561032</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.64665868634525703</v>
+        <v>0.71793801311217997</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7237,13 +7237,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.58826762173558478</v>
+        <v>0.62629954933422982</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.77879076851139717</v>
+        <v>0.84598173655468212</v>
       </c>
       <c r="AL35" s="0">
-        <v>0.56894282300976162</v>
+        <v>0.72221118360089476</v>
       </c>
       <c r="AM35" s="0">
         <v>0</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="0">
-        <v>0.84469216005173742</v>
+        <v>0.86354617769924846</v>
       </c>
       <c r="O36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.96479626894817239</v>
+        <v>0.99892886637469824</v>
       </c>
       <c r="AI36" s="0">
         <v>0.62629954933422982</v>
@@ -7649,7 +7649,7 @@
         <v>0.84598173655468212</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.75860651148969604</v>
+        <v>0.90622218195658344</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0.94452025789172223</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.59236470068916947</v>
+        <v>0.95555089521551206</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7858,13 +7858,13 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.86443479840878379</v>
+        <v>0.94452025789172223</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.67617332442220879</v>
+        <v>0.78202701882515413</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="0">
-        <v>0.73782969135388887</v>
+        <v>0.9236958285543071</v>
       </c>
       <c r="AA39" s="0">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="0">
-        <v>0.53496307038476476</v>
+        <v>0.70395544100031415</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.75804042073962496</v>
+        <v>0.98462175441094368</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0.5174989356300328</v>
+        <v>0.98316629690881729</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8482,16 +8482,16 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.95482683112362321</v>
+        <v>0.97608817952510518</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.55312607777132339</v>
+        <v>0.68729479038197083</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.61536734021781592</v>
+        <v>0.7756712587518424</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.60717316176917191</v>
+        <v>0.91555136414989835</v>
       </c>
       <c r="AO42" s="0">
         <v>0.7756712587518424</v>
@@ -8703,7 +8703,7 @@
         <v>0.91237206740244048</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.83129559910952888</v>
+        <v>0.98941329982710702</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.53973713959055025</v>
+        <v>0.91237206740244048</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0.90185101563572556</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.51048121396976187</v>
+        <v>0.89424305019911199</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9112,13 +9112,13 @@
         <v>0.98941329982710702</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.79463637381591301</v>
+        <v>0.90185101563572556</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.53603994979042002</v>
+        <v>0.97843315526193475</v>
       </c>
       <c r="AT44" s="0">
         <v>0.61405840224338626</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>0.58172737575521227</v>
+        <v>0.75594615199753146</v>
       </c>
       <c r="BI45" s="0">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.52340748076601507</v>
+        <v>0.61405840224338626</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.50744450340920377</v>
+        <v>0.98718353531670444</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="0">
-        <v>0.50868062584365081</v>
+        <v>0.73009917492689203</v>
       </c>
       <c r="G47" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.55274395684112987</v>
+        <v>0.83977125870401792</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.50036841920976816</v>
+        <v>0.52892488602191789</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.88069584539978751</v>
+        <v>0.99775919168180194</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>0.65274909488534649</v>
+        <v>0.69739982736733519</v>
       </c>
       <c r="O48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.56554111432510423</v>
+        <v>0.6201475275244499</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -10157,13 +10157,13 @@
         <v>0.99775919168180194</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.7790433860191206</v>
+        <v>0.96319703018993441</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.58339729039518506</v>
+        <v>0.72592511587065978</v>
       </c>
       <c r="AY49" s="0">
         <v>0.78804955250767228</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.55553863549217541</v>
+        <v>0.94565484141931433</v>
       </c>
       <c r="AW50" s="0">
         <v>0.72592511587065978</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>0.51433927396639112</v>
+        <v>0.86687123574640979</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="0">
-        <v>0.61140194259655256</v>
+        <v>0.72458490947725784</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.54668077338958043</v>
+        <v>0.78804955250767228</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.65802552122458025</v>
+        <v>0.82102743618981022</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.66913538381411031</v>
+        <v>0.71527138578018434</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="0">
-        <v>0.62527986526473989</v>
+        <v>0.63641326174378721</v>
       </c>
       <c r="AN52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.58667461942261068</v>
+        <v>0.98602771212051876</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0.71527138578018434</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.67023503296850107</v>
+        <v>0.97942751429402275</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="BE53" s="0">
-        <v>0.52696358226381823</v>
+        <v>0.59003898326872806</v>
       </c>
       <c r="BF53" s="0">
         <v>0</v>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>0.5119391020606574</v>
+        <v>0.63716363000389364</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="0">
-        <v>0.50019881582842629</v>
+        <v>0.92509447414682122</v>
       </c>
       <c r="AI54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.55208261824575766</v>
+        <v>0.56669196102283159</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="0">
-        <v>0.61367830924838507</v>
+        <v>0.86285485999774036</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.61184608865999157</v>
+        <v>0.76030581760927185</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.92373498817340383</v>
+        <v>0.95831025333929898</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11829,13 +11829,13 @@
         <v>0.95831025333929898</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.73881505273898784</v>
+        <v>0.81434779971520532</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.56864961994719465</v>
+        <v>0.97545193767523863</v>
       </c>
       <c r="BG57" s="0">
         <v>0.68413357508290218</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.77887619929623964</v>
+        <v>0.85600693355588042</v>
       </c>
       <c r="BE58" s="0">
         <v>0.97545193767523863</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.53187511643754348</v>
+        <v>0.81647776248355441</v>
       </c>
       <c r="BH58" s="0">
         <v>0.70477405033494134</v>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="0">
-        <v>0.7727831437987972</v>
+        <v>0.78016833321346146</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.63998111876917296</v>
+        <v>0.68413357508290218</v>
       </c>
       <c r="BF59" s="0">
         <v>0.81647776248355441</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.70861455945919816</v>
+        <v>0.91585428444991812</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.69623406328972282</v>
+        <v>0.70477405033494134</v>
       </c>
       <c r="BG60" s="0">
         <v>0.91585428444991812</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="0">
-        <v>0.77113354149976665</v>
+        <v>0.92596348873620737</v>
       </c>
       <c r="Q61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.70253331051157208</v>
+        <v>0.82341757609480792</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12760,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="W62" s="0">
-        <v>0.83110259856574265</v>
+        <v>0.92659319305304511</v>
       </c>
       <c r="X62" s="0">
         <v>0</v>
@@ -12874,16 +12874,16 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.83610511954843747</v>
+        <v>0.92369497264911726</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.55187714606205263</v>
+        <v>0.68536990093188288</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.87480037217280482</v>
+        <v>0.90496792216656474</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.68335535730968389</v>
+        <v>0.94700703976134093</v>
       </c>
       <c r="BJ63" s="0">
         <v>0.68536990093188288</v>
@@ -13092,7 +13092,7 @@
         <v>0.8685827875139579</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.60752404380327252</v>
+        <v>0.75943594956090532</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13292,13 +13292,13 @@
         <v>0.90496792216656474</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.80826665401553988</v>
+        <v>0.8685827875139579</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.60698941130019446</v>
+        <v>0.66491208101333954</v>
       </c>
       <c r="BN64" s="0">
         <v>0.9096422378911353</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.68474435651311405</v>
+        <v>0.92467497501009599</v>
       </c>
       <c r="BO65" s="0">
         <v>0.93285700877550037</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="0">
-        <v>0.71992486685420176</v>
+        <v>0.78285297106500695</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.87736536425496414</v>
+        <v>0.9096422378911353</v>
       </c>
       <c r="BM66" s="0">
         <v>0.92467497501009599</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.59333180397122243</v>
+        <v>0.93285700877550037</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.71079703457204679</v>
+        <v>0.71722221782593309</v>
       </c>
     </row>
     <row r="68">
